--- a/outputs_decision/outputs/tables_by_country/aggregated_Reservoirs_permanent_area.xlsx
+++ b/outputs_decision/outputs/tables_by_country/aggregated_Reservoirs_permanent_area.xlsx
@@ -465,19 +465,19 @@
         <v>2000</v>
       </c>
       <c r="B2" t="n">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E2" t="n">
-        <v>1.78468624064479</v>
+        <v>1.758597296874185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.395797351755901</v>
+        <v>0.4018159995825288</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>2005</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.194300518134715</v>
+        <v>0.1565516881490372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1727115716753022</v>
+        <v>0.1252413505192298</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07196315486470926</v>
+        <v>0.05218389604967907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3166378814047208</v>
+        <v>0.3026665970881386</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>2015</v>
       </c>
       <c r="B5" t="n">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C5" t="n">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="D5" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9643062751871042</v>
+        <v>0.8662526744246726</v>
       </c>
       <c r="F5" t="n">
-        <v>2.784974093264248</v>
+        <v>2.452643114334916</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C6" t="n">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="D6" t="n">
-        <v>13896</v>
+        <v>19163</v>
       </c>
       <c r="E6" t="n">
-        <v>1.208981001727116</v>
+        <v>1.137608933883004</v>
       </c>
       <c r="F6" t="n">
-        <v>3.396660909614277</v>
+        <v>2.974482074831707</v>
       </c>
     </row>
   </sheetData>
